--- a/3.LajittelualgoritmienMittaus/3.lajitteluAlgoritmienMittaus.xlsx
+++ b/3.LajittelualgoritmienMittaus/3.lajitteluAlgoritmienMittaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah.hinnawi/IdeaProjects/DataStructures&amp;Algorithms/3.LajittelualgoritmienMittaus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98952B61-1E2B-D242-9BE8-748373900D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6607C59-F0E6-1F43-819B-66B53E5DD940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" xr2:uid="{AA1A960F-7A86-7945-8ECB-AB99A91C5BEB}"/>
   </bookViews>
@@ -33,16 +33,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Valinta-laittelu</t>
+    <t>Syötteen pituus</t>
   </si>
   <si>
-    <t>Lomitus-laittelu</t>
+    <t>Valintalaittelu</t>
   </si>
   <si>
-    <t>Pika-laittelu</t>
+    <t>Lomituslaittelu</t>
   </si>
   <si>
-    <t>Syötteen pituus</t>
+    <t>Pikalaittelu</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Lajittelu Algoritmien Mittuas</a:t>
+              <a:t>Lajittelualgoritmien Mittuas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -250,7 +250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lomitus-laittelu</c:v>
+                  <c:v>Lomituslaittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -403,7 +403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pika-laittelu</c:v>
+                  <c:v>Pikalaittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,7 +570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valinta-laittelu</c:v>
+                  <c:v>Valintalaittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1282,7 +1282,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Algoritmien Mittaus</a:t>
+              <a:t>algoritmien Mittaus</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1337,7 +1337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valinta-laittelu</c:v>
+                  <c:v>Valintalaittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,7 +1546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lomitus-laittelu</c:v>
+                  <c:v>Lomituslaittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1755,7 +1755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pika-laittelu</c:v>
+                  <c:v>Pikalaittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3705,7 +3705,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3718,16 +3718,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/3.LajittelualgoritmienMittaus/3.lajitteluAlgoritmienMittaus.xlsx
+++ b/3.LajittelualgoritmienMittaus/3.lajitteluAlgoritmienMittaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah.hinnawi/IdeaProjects/DataStructures&amp;Algorithms/3.LajittelualgoritmienMittaus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6607C59-F0E6-1F43-819B-66B53E5DD940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57C438-199F-F84D-8D3C-328457087CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" xr2:uid="{AA1A960F-7A86-7945-8ECB-AB99A91C5BEB}"/>
   </bookViews>
@@ -36,13 +36,13 @@
     <t>Syötteen pituus</t>
   </si>
   <si>
-    <t>Valintalaittelu</t>
+    <t>Valintalajittelu</t>
   </si>
   <si>
-    <t>Lomituslaittelu</t>
+    <t>Lomituslajittelu</t>
   </si>
   <si>
-    <t>Pikalaittelu</t>
+    <t>Pikalajittelu</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Lajittelualgoritmien Mittuas</a:t>
+              <a:t>Lajittelualgoritmien Mittaus</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -250,7 +250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lomituslaittelu</c:v>
+                  <c:v>Lomituslajittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -403,7 +403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pikalaittelu</c:v>
+                  <c:v>Pikalajittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,7 +570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valintalaittelu</c:v>
+                  <c:v>Valintalajittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,7 +1337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valintalaittelu</c:v>
+                  <c:v>Valintalajittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,7 +1546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lomituslaittelu</c:v>
+                  <c:v>Lomituslajittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1755,7 +1755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pikalaittelu</c:v>
+                  <c:v>Pikalajittelu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3705,7 +3705,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
